--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_11.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776014</v>
+        <v>3013503.893776013</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20373567.14494819</v>
       </c>
     </row>
     <row r="9">
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T19" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>50.46697834767983</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>1.601353610083249</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>200.433572294082</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,73 +2710,73 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2843,14 +2843,14 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>31.69844046683744</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,22 +3071,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>33.6917669883161</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,61 +3187,61 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>101.030959446742</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3676,55 +3676,55 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,64 +3743,64 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>187.9840913941556</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>64.01166143312571</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>17.27555404375957</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5519,13 +5519,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O17" t="n">
         <v>83.04597603355158</v>
@@ -5601,10 +5601,10 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
         <v>83.04597603355158</v>
@@ -5616,22 +5616,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T18" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U18" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>26.7539638887914</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
         <v>2.207202020825291</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="H19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="R19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T19" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="V19" t="n">
         <v>52.75142891054807</v>
       </c>
-      <c r="S19" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>467.067986854209</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>223.6192102101089</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>901.2946886937524</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C21" t="n">
-        <v>726.8416594126254</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D21" t="n">
-        <v>577.9072497513741</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -6011,25 +6011,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y23" t="n">
         <v>19.28114311021272</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6163,10 +6163,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>89.01731535111452</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6576,16 +6576,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>158.0119685275972</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>158.0119685275972</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>158.0119685275972</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="31">
@@ -6637,28 +6637,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="Y35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.334904905842</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>486.4017421314428</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>486.4017421314428</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>278.55024192591</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y36" t="n">
-        <v>278.55024192591</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="37">
@@ -7117,7 +7117,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E38" t="n">
         <v>262.7299197543128</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,25 +7275,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.1169902094293</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="C41" t="n">
-        <v>638.1169902094293</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="D41" t="n">
-        <v>422.536925949487</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="E41" t="n">
-        <v>206.9568616895446</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="F41" t="n">
-        <v>206.9568616895446</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="G41" t="n">
-        <v>206.9568616895446</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
         <v>17.07394108938743</v>
@@ -7418,7 +7418,7 @@
         <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>511.4548195661379</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
         <v>614.8420490346726</v>
@@ -7445,16 +7445,16 @@
         <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>638.1169902094293</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>638.1169902094293</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="X41" t="n">
-        <v>638.1169902094293</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.1169902094293</v>
+        <v>663.8141338692145</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>376.9235858316923</v>
+        <v>192.2811030233001</v>
       </c>
       <c r="C42" t="n">
-        <v>376.9235858316923</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="D42" t="n">
-        <v>376.9235858316923</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="E42" t="n">
-        <v>376.9235858316923</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>359.4735312420361</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>220.7427058246516</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3735702322309</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7512,28 +7512,28 @@
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>579.1101804729262</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>376.9235858316923</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="U42" t="n">
-        <v>376.9235858316923</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="V42" t="n">
-        <v>376.9235858316923</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="W42" t="n">
-        <v>376.9235858316923</v>
+        <v>464.6996456600982</v>
       </c>
       <c r="X42" t="n">
-        <v>376.9235858316923</v>
+        <v>464.6996456600982</v>
       </c>
       <c r="Y42" t="n">
-        <v>376.9235858316923</v>
+        <v>256.9393468951443</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
         <v>17.07394108938743</v>
@@ -7588,31 +7588,31 @@
         <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -9167,16 +9167,16 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O17" t="n">
-        <v>256.5734881866366</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
         <v>258.8230210155857</v>
@@ -9249,13 +9249,13 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
         <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>443.7704968446156</v>
+        <v>340.2681809469343</v>
       </c>
       <c r="N41" t="n">
-        <v>333.8446085143028</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>201.6400878316884</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23905,10 +23905,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23932,22 +23932,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>205.4968300677721</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>335.7709603083737</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>145.8437119545555</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24251,28 +24251,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,19 +24485,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>68.30470664471787</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,13 +24570,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>25.50780978689281</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.6450766963732</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>132.7629680684941</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,22 +24959,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,25 +24993,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>103.6517501748945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,19 +25047,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>265.3359907678426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>156.541234372848</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>131.7696277026833</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25357,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25397,7 +25397,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>141.25877800334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>168.5061064549189</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>193.4517821243685</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>201.8784738977921</v>
       </c>
       <c r="H41" t="n">
-        <v>151.4907107216115</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,10 +25685,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>114.327994852792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>161.2568773232574</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>102.5215222167416</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,19 +25716,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>127.7936583496243</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351685.0495668242</v>
+        <v>351685.0495668239</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107076</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="14">
@@ -26320,28 +26320,28 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>59129.07304229551</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="F2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="G2" t="n">
-        <v>63415.76181874349</v>
+        <v>63415.76181874351</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
         <v>91388.3698922328</v>
@@ -26528,28 +26528,28 @@
         <v>12913.20166172703</v>
       </c>
       <c r="E6" t="n">
-        <v>46540.80166172702</v>
+        <v>46540.80166172703</v>
       </c>
       <c r="F6" t="n">
         <v>46540.80166172703</v>
       </c>
       <c r="G6" t="n">
-        <v>40633.00469563995</v>
+        <v>40633.00469563998</v>
       </c>
       <c r="H6" t="n">
-        <v>-624.1708992935455</v>
+        <v>-624.170899293531</v>
       </c>
       <c r="I6" t="n">
+        <v>56959.61624303817</v>
+      </c>
+      <c r="J6" t="n">
         <v>56959.61624303815</v>
       </c>
-      <c r="J6" t="n">
-        <v>56959.61624303818</v>
-      </c>
       <c r="K6" t="n">
+        <v>56959.61624303817</v>
+      </c>
+      <c r="L6" t="n">
         <v>56959.61624303814</v>
-      </c>
-      <c r="L6" t="n">
-        <v>56959.61624303815</v>
       </c>
       <c r="M6" t="n">
         <v>56959.61624303815</v>
@@ -26558,7 +26558,7 @@
         <v>56959.61624303815</v>
       </c>
       <c r="O6" t="n">
-        <v>55845.13526333657</v>
+        <v>55845.13526333658</v>
       </c>
       <c r="P6" t="n">
         <v>46540.80166172703</v>
@@ -35887,16 +35887,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="P17" t="n">
         <v>27.59002526031614</v>
@@ -35969,13 +35969,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>213.4242636173429</v>
+        <v>109.9219477196616</v>
       </c>
       <c r="N41" t="n">
-        <v>104.4315449177119</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300771.3271433047</v>
+        <v>319653.9938601676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776013</v>
+        <v>2995243.613506389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494819</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4789718.594510994</v>
+        <v>4812737.401672006</v>
       </c>
     </row>
     <row r="11">
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="U18" t="n">
         <v>27.59002526031614</v>
@@ -1986,7 +1986,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="X18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H19" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I19" t="n">
         <v>27.59002526031614</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="T19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.46697834767983</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.601353610083249</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.601353610083249</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>200.433572294082</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2795,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>30.95184914057959</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>174.1529726868368</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>19.72793538656374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7904679947746</v>
       </c>
       <c r="X33" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>42.51816389461843</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>52.42556848774763</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>204.9483021474179</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,61 +3746,61 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>187.9840913941556</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="F41" t="n">
+      <c r="V41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="G41" t="n">
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>187.9840913941556</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64.01166143312571</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>70.93356809783194</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="G17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="H17" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I17" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
@@ -5522,43 +5522,43 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>85.81333917329844</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T17" t="n">
-        <v>30.07591440498301</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.207202020825291</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
@@ -5601,10 +5601,10 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="N18" t="n">
         <v>56.83545203625125</v>
-      </c>
-      <c r="N18" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
         <v>83.04597603355158</v>
@@ -5622,22 +5622,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>110.3601010412646</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="U18" t="n">
-        <v>82.49138865710684</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="V18" t="n">
-        <v>54.62267627294912</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="W18" t="n">
-        <v>26.7539638887914</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G19" t="n">
-        <v>52.75142891054807</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H19" t="n">
         <v>30.07591440498301</v>
@@ -5698,25 +5698,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.75142891054807</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5795,7 @@
         <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="21">
@@ -5811,10 +5811,10 @@
         <v>318.8669524321267</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>159.6294974266712</v>
       </c>
       <c r="F21" t="n">
         <v>158.0119685275972</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5932,10 +5932,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>358.0940480307835</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>114.6452713866835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6254,7 +6254,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
         <v>506.1786963984129</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6318,7 +6318,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>588.181657128899</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>353.0295488971563</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="28">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>51.29976984439196</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6637,28 +6637,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="C32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="D32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="E32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>205.2136026847931</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>944.1299480494607</v>
+        <v>640.352991943436</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="V32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="X32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>640.352991943436</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>558.2198666437646</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>340.6501720144431</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>123.0804773851217</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.61171342886701</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>818.6283504345186</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>818.6283504345186</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>818.6283504345186</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>818.6283504345186</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>818.6283504345186</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>601.0586558051971</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C38" t="n">
-        <v>559.1338160830064</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="D38" t="n">
-        <v>315.6850394389064</v>
+        <v>426.43660147347</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>448.2340696092722</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
         <v>17.07394108938743</v>
@@ -7418,7 +7418,7 @@
         <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
         <v>614.8420490346726</v>
@@ -7442,19 +7442,19 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>853.6970544693717</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V41" t="n">
-        <v>853.6970544693717</v>
+        <v>422.536925949487</v>
       </c>
       <c r="W41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="Y41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>192.2811030233001</v>
+        <v>88.72400987507626</v>
       </c>
       <c r="C42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>228.3639620705569</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>439.6539830517264</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>642.4070334882022</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7585,16 +7585,16 @@
         <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>151.6062315796582</v>
+        <v>148.8573015441971</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.6062315796582</v>
+        <v>148.8573015441971</v>
       </c>
       <c r="R43" t="n">
-        <v>151.6062315796582</v>
+        <v>148.8573015441971</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>148.8573015441971</v>
       </c>
       <c r="T43" t="n">
         <v>17.07394108938743</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8781,13 +8781,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8939,10 +8939,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,13 +9015,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9170,16 +9170,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615408</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,13 +9249,13 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>157.8169888482831</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9492,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,22 +10431,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>164.3368825942667</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>360.302996258564</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>222.6636563040802</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>340.2681809469343</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>333.8446085143028</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>351.9786433972171</v>
@@ -11148,7 +11148,7 @@
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>336.1427731302785</v>
+        <v>139.4234614422313</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23069,16 +23069,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>186.4537171020145</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>124.8787130804079</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>209.8495256553324</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>183.1163432930735</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>161.9303118490916</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>342.7065392867767</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>337.113496435638</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>125.5678236918632</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
         <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>176.610025771793</v>
       </c>
       <c r="U18" t="n">
         <v>198.3513568206587</v>
@@ -23874,7 +23874,7 @@
         <v>224.1049579006035</v>
       </c>
       <c r="X18" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7784131469302</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I19" t="n">
         <v>127.8604496669421</v>
@@ -23938,16 +23938,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.7709603083737</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,13 +24051,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>145.8437119545555</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>143.4678587833006</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8274516623475</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>31.13252716541155</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>73.45469409868832</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>25.50780978689281</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24683,13 +24683,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6450766963732</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>58.44478371083549</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>95.24412853877561</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>36.32291688356915</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>189.2921341996816</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,16 +25050,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>146.904515166145</v>
       </c>
       <c r="X33" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>159.5219355582018</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>156.541234372848</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.6396702580247</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
-        <v>329.5048015845142</v>
+        <v>192.2113369130506</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>46.74668101350173</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>193.9462786781062</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>37.92138929049358</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>114.327994852792</v>
       </c>
       <c r="W41" t="n">
-        <v>161.2568773232574</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.5215222167416</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>101.7749308904838</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351685.0495668239</v>
+        <v>351685.0495668242</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107076</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107076</v>
+        <v>488398.3911706114</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="15">
@@ -26317,13 +26317,13 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="E2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="F2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="G2" t="n">
         <v>63415.76181874351</v>
@@ -26335,19 +26335,19 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223279</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.3698922328</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.3698922328</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
         <v>87796.12542771843</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>13543.27151380256</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>18974.79493644741</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12913.20166172703</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>12913.20166172703</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>12913.20166172703</v>
+        <v>8463.818372101348</v>
       </c>
       <c r="E6" t="n">
-        <v>46540.80166172703</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>46540.80166172703</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="G6" t="n">
-        <v>40633.00469563998</v>
+        <v>49628.5935865654</v>
       </c>
       <c r="H6" t="n">
-        <v>-624.170899293531</v>
+        <v>2236.224345158615</v>
       </c>
       <c r="I6" t="n">
-        <v>56959.61624303817</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="J6" t="n">
-        <v>56959.61624303815</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="K6" t="n">
-        <v>56959.61624303817</v>
+        <v>59820.01148749034</v>
       </c>
       <c r="L6" t="n">
-        <v>56959.61624303814</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>56959.61624303815</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="N6" t="n">
-        <v>56959.61624303815</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="O6" t="n">
-        <v>55845.13526333658</v>
+        <v>58591.62910884903</v>
       </c>
       <c r="P6" t="n">
-        <v>46540.80166172703</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36212,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>22.2028486722484</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>217.7067518141195</v>
+        <v>80.06741185963574</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>109.9219477196616</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>104.4315449177119</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>213.4242636173429</v>
@@ -37868,7 +37868,7 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>204.8010610469452</v>
+        <v>8.081749358897964</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
